--- a/Executável/Arquivos excel/historico.xlsx
+++ b/Executável/Arquivos excel/historico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -37,22 +37,28 @@
     <t>Inspetor</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>06/03/2023</t>
-  </si>
-  <si>
-    <t>S4NW24KE311</t>
-  </si>
-  <si>
-    <t>21S4N201MGBC7635384560</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>08/03/2023</t>
+  </si>
+  <si>
+    <t>S4NW12JA31A</t>
+  </si>
+  <si>
+    <t>21S4N201KABC9095384520</t>
   </si>
   <si>
     <t>ENTRADA</t>
   </si>
   <si>
-    <t>06/03/2023 01:40:12</t>
+    <t>SAÍDA</t>
+  </si>
+  <si>
+    <t>08/03/2023 05:43:18</t>
+  </si>
+  <si>
+    <t>08/03/2023 05:43:23</t>
   </si>
   <si>
     <t>adm</t>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,10 +474,33 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Executável/Arquivos excel/historico.xlsx
+++ b/Executável/Arquivos excel/historico.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -28,40 +28,13 @@
     <t>Serial Number</t>
   </si>
   <si>
-    <t>Operaração</t>
-  </si>
-  <si>
-    <t>Data / Hora</t>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Saída</t>
   </si>
   <si>
     <t>Inspetor</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>08/03/2023</t>
-  </si>
-  <si>
-    <t>S4NW12JA31A</t>
-  </si>
-  <si>
-    <t>21S4N201KABC9095384520</t>
-  </si>
-  <si>
-    <t>ENTRADA</t>
-  </si>
-  <si>
-    <t>SAÍDA</t>
-  </si>
-  <si>
-    <t>08/03/2023 05:43:18</t>
-  </si>
-  <si>
-    <t>08/03/2023 05:43:23</t>
-  </si>
-  <si>
-    <t>adm</t>
   </si>
 </sst>
 </file>
@@ -419,19 +392,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="nan" customWidth="1"/>
+    <col min="2" max="2" width="nan" customWidth="1"/>
+    <col min="3" max="3" width="nan" customWidth="1"/>
+    <col min="4" max="4" width="nan" customWidth="1"/>
+    <col min="5" max="5" width="nan" customWidth="1"/>
+    <col min="6" max="6" width="nan" customWidth="1"/>
+    <col min="7" max="7" width="nan" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -457,52 +430,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
